--- a/workspace/datasets/__clustering_of_LFs/manualLF2C.xlsx
+++ b/workspace/datasets/__clustering_of_LFs/manualLF2C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christin/Desktop/USB-Pipeline/workspace/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christin/Desktop/USB-Pipeline/workspace/datasets/__clustering_of_LFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B15459-F5B9-3F4C-899D-D2F9DC267B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C674E98A-2A80-5E4E-9669-93799C50ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11080" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{B53BDDDE-F7CE-7D4E-8D36-81EE01EDCD84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{B53BDDDE-F7CE-7D4E-8D36-81EE01EDCD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="341">
   <si>
     <t>clustered</t>
   </si>
@@ -1053,6 +1053,12 @@
   </si>
   <si>
     <t>no_relative_sub_clauses_label=NOT_SIMPLE_thresh={thresh}</t>
+  </si>
+  <si>
+    <t>low_relative_sub_clauses_ratio_label=NOT_SIMPLE_thresh={thresh}</t>
+  </si>
+  <si>
+    <t>low_relative_sub_clauses_ratio_label=SIMPLE_thresh={thresh}</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1094,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1406,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DCE332-C261-6947-BE11-E959C673661A}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2198,7 +2205,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B47" t="s">
@@ -2215,8 +2222,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>131</v>
+      <c r="A48" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -2228,46 +2235,40 @@
         <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
         <v>63</v>
@@ -2276,12 +2277,12 @@
         <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>63</v>
@@ -2290,74 +2291,80 @@
         <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
       </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
       </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
@@ -2369,12 +2376,12 @@
         <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -2386,46 +2393,46 @@
         <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2434,15 +2441,15 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2451,49 +2458,49 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2505,12 +2512,12 @@
         <v>174</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2522,182 +2529,182 @@
         <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>177</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
-        <v>336</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s">
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
         <v>38</v>
@@ -2706,15 +2713,15 @@
         <v>107</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
@@ -2723,15 +2730,15 @@
         <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E78" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
@@ -2740,15 +2747,15 @@
         <v>107</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
@@ -2757,219 +2764,219 @@
         <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
         <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="E81" t="s">
-        <v>334</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B82" t="s">
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="E85" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B87" t="s">
         <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B88" t="s">
         <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E88" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
         <v>63</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E89" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="E91" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="E92" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B93" t="s">
         <v>38</v>
@@ -2978,15 +2985,15 @@
         <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
@@ -2995,185 +3002,185 @@
         <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E97" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E98" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="E103" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B105" t="s">
         <v>38</v>
@@ -3182,15 +3189,15 @@
         <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E105" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B106" t="s">
         <v>38</v>
@@ -3199,15 +3206,15 @@
         <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E106" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
@@ -3219,12 +3226,12 @@
         <v>207</v>
       </c>
       <c r="E107" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="B108" t="s">
         <v>38</v>
@@ -3236,7 +3243,7 @@
         <v>207</v>
       </c>
       <c r="E108" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">

--- a/workspace/datasets/__clustering_of_LFs/manualLF2C.xlsx
+++ b/workspace/datasets/__clustering_of_LFs/manualLF2C.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christin/Desktop/USB-Pipeline/workspace/datasets/__clustering_of_LFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C674E98A-2A80-5E4E-9669-93799C50ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBED2C76-BD6C-5745-9EEB-81EC0026CA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{B53BDDDE-F7CE-7D4E-8D36-81EE01EDCD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="577">
   <si>
     <t>clustered</t>
   </si>
@@ -1059,16 +1061,745 @@
   </si>
   <si>
     <t>low_relative_sub_clauses_ratio_label=SIMPLE_thresh={thresh}</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>low average number of unique entities per paragraph/sentence~\cite{DBLP:conf/dsai/StajnerNI20}</t>
+  </si>
+  <si>
+    <t>low avg distance paragraphs/sentences between all pairs of same entities~\cite{DBLP:conf/dsai/StajnerNI20}</t>
+  </si>
+  <si>
+    <t>low entity to token ratio per text/sentence/paragraph~\cite{DBLP:conf/dsai/StajnerNI20}</t>
+  </si>
+  <si>
+    <t>low number of cases with max distance sentence/paragraphs between 2 appearances of same entity~\cite{DBLP:conf/dsai/StajnerNI20}</t>
+  </si>
+  <si>
+    <t>low average number of punctuation marks for people with learning disabilities~\cite{10.1145/2738046}</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>VU/Sy</t>
+  </si>
+  <si>
+    <t>num\_unique\_lemmas\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>num\_unique\_lemmas\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>num\_unique\_lemmas\_norm\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>num\_unique\_lemmas\_norm\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>avg\_num\_words\_before\_main\_verb\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>avg\_num\_words\_before\_main\_verb\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>lf\_content\_ratio\_thresh=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_content\_ratio\_thresh=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>lf\_infrequent\_words\_cnt=$\theta$\_{animal}\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_infrequent\_words\_cnt=$\theta$\_{animal}\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_infrequent\_words\_per\_sentence=$\theta$\_{animal}\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_infrequent\_words\_per\_sentence=$\theta$\_{animal}\_SIMPLE</t>
+  </si>
+  <si>
+    <t>Sy</t>
+  </si>
+  <si>
+    <t>NC *</t>
+  </si>
+  <si>
+    <t>few\_noun\_phrases\_ratio\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_noun\_phrases\_ratio\_thres=$\theta$\_label=SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_noun\_phrases\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_noun\_phrases\_thres=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>low\_relative\_clauses\_ratio\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>low\_relative\_clauses\_ratio\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>no\_relative\_clauses\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>low\_relative\_sub\_clauses\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>low\_relative\_sub\_clauses\_ratio\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>low\_relative\_sub\_clauses\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>low\_relative\_sub\_clauses\_ratio\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>no\_relative\_sub\_clauses\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>no\_relative\_sub\_clauses\_label=NOT\_SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>SL/PL</t>
+  </si>
+  <si>
+    <t>lf\_words\_cnt\_wcount=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_words\_cnt\_wcount=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>few\_modifiers\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_modifiers\_thres=$\theta$\_label=SIMPLE,</t>
+  </si>
+  <si>
+    <t>low\_modifier\_ratio\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>low\_modifier\_ratio\_thres=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>freq\_negations\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>freq\_negations\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>freq\_negations\_ratio\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>freq\_negations\_ratio\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>num\_past\_perfect\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>num\_past\_perfect\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>perc\_past\_perfect\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>perc\_past\_perfect\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>freq\_third\_person\_singular\_pronouns\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>freq\_third\_person\_singular\_pronouns\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>freq\_third\_person\_singular\_pronouns\_ratio\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>freq\_third\_person\_singular\_pronouns\_ratio\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>frequency per thousand words/ratio of all words on Academic Word List~\cite{textevaluator}\footnote{\url{https://www.eapfoundation.com/vocab/academic/awllists/}}</t>
+  </si>
+  <si>
+    <t>VU/DU</t>
+  </si>
+  <si>
+    <t>ratio\_academic\_word\_list\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>ratio\_academic\_word\_list\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>few\_gram\_errors\_ratio\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_gram\_errors\_ratio\_thres=$\theta$\_label=SIMPLE,</t>
+  </si>
+  <si>
+    <t>thresh=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>thresh=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_entities\_para\_consec\_$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_entities\_para\_same\_$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_entities\_sent\_consec\_$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_entities\_sent\_same\_$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>lf\_avg\_concreteness=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_avg\_concreteness=$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_max\_concreteness=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_max\_concreteness=$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_median\_concreteness=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_median\_concreteness=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>high\_fkre\_threshold=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>high\_fkre\_threshold=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>lf\_avg\_imageability=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_avg\_imageability=$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_min\_imageability=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_min\_imageability=$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_med\_imageability=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_med\_imageability=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>Vocabulary/DU</t>
+  </si>
+  <si>
+    <t>perc\_vocab\_initial\_forLang\_learn\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>perc\_vocab\_initial\_forLang\_learn\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>lf\_avg\_age\_of\_acquisition=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_avg\_age\_of\_acquisition=$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_max\_age\_of\_acquisition=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_max\_age\_of\_acquisition=$\theta$\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_median\_age\_of\_acquisition=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>lf\_median\_age\_of\_acquisition=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>average\_entities\_paragraph\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>average\_entities\_paragraph\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>average\_entities\_sentence\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>average\_entities\_sentence\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_appearance\_same\_entities\_paragraph\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_appearance\_same\_entities\_paragraph\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_appearance\_same\_entities\_sentence\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>avarage\_distance\_appearance\_same\_entities\_sentence\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>depth\_of\_syntactic\_tree\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>depth\_of\_syntactic\_tree\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>entity\_token\_ratio\_text\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>entity\_token\_ratio\_text\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>entity\_token\_ratio\_paragraph\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>entity\_token\_ratio\_paragraph\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>entity\_token\_ratio\_sentence\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>entity\_token\_ratio\_sentence\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>low\_thresh=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>low\_thresh=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>distance\_appearance\_same\_entities\_sentence\_dist\_label=SIMPLE\_thresh\_dist=$\theta$\_num$\eta$,</t>
+  </si>
+  <si>
+    <t>distance\_appearance\_same\_entities\_paragraph\_dist\_label=SIMPLE\_thresh\_dist=$\theta$\_num$\eta$</t>
+  </si>
+  <si>
+    <t>avg\_num\_punctuation\_text\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>avg\_num\_punctuation\_text\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>num\_sents\_num\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>num\_sents\_num\_thres=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>unique\_entities\_text\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>unique\_entities\_text\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>unique\_entities\_text\_ratio\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>unique\_entities\_text\_ratio\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>low\_prop\_long\_words\_syllables\_long=$\theta$\_prop=$\eta$\_label=SIMPLE,</t>
+  </si>
+  <si>
+    <t>low\_prop\_long\_words\_letters\_long=$\theta$\_prop=$\eta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>low\_num\_words\_in\_sents\_avg\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>low\_num\_words\_in\_sents\_avg\_thres=$\theta$\_label=SIMPLE,</t>
+  </si>
+  <si>
+    <t>low\_num\_words\_in\_sents\_max\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>low\_num\_words\_in\_sents\_max\_thres=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>unique\_entity\_total\_entity\_ratio\_text\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>unique\_entity\_total\_entity\_ratio\_text\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>unique\_entity\_total\_entity\_ratio\_paragraph\_label=NOT\_SIMPLE\_thres=$\theta$,</t>
+  </si>
+  <si>
+    <t>unique\_entity\_total\_entity\_ratio\_paragraph\_label=SIMPLE\_thres=$\theta$,</t>
+  </si>
+  <si>
+    <t>unique\_entity\_total\_entity\_ratio\_sentence\_thresh=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>unique\_entity\_total\_entity\_ratio\_sentence\_thresh=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>few\_conjunctions\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_conjunctions\_thres=$\theta$\_label=SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_conjunctions\_ratio\_thres=$\theta$\_label=NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>few\_conjunctions\_ratio\_thres=$\theta$\_label=SIMPLE</t>
+  </si>
+  <si>
+    <t>Ap</t>
+  </si>
+  <si>
+    <t>no\_apposition,</t>
+  </si>
+  <si>
+    <t>percentage\_appositions=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>percentage\_appositions=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>no\_conditional,</t>
+  </si>
+  <si>
+    <t>percentage\_conditional=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>percentage\_conditional=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>no\_passive\_voice,</t>
+  </si>
+  <si>
+    <t>percentage\_passive\_voice=$\theta$\_NOT\_SIMPLE,</t>
+  </si>
+  <si>
+    <t>percentage\_passive\_voice=$\theta$\_SIMPLE</t>
+  </si>
+  <si>
+    <t>num\_past\_tense\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>num\_past\_tense\_label=SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>perc\_past\_tense\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>perc\_past\_tense\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>perc\_more\_than\_8\_characters\_label=NOT\_SIMPLE\_thresh=$\theta$,</t>
+  </si>
+  <si>
+    <t>perc\_more\_than\_8\_characters\_label=SIMPLE\_thresh=$\theta$</t>
+  </si>
+  <si>
+    <t>average number of words before the main verb~\cite{textevaluator},</t>
+  </si>
+  <si>
+    <t>few infrequent words~\cite{DBLP:conf/coling/StajnerH18},</t>
+  </si>
+  <si>
+    <t>no appositions~\cite{DBLP:conf/acl/NarayanG14},</t>
+  </si>
+  <si>
+    <t>no conjunctions~\cite{arfe},</t>
+  </si>
+  <si>
+    <t>no conditional clauses~\cite{arfe},</t>
+  </si>
+  <si>
+    <t>few words containing more than eight characters~\cite{textevaluator},</t>
+  </si>
+  <si>
+    <t>few long words~\cite{arfe},</t>
+  </si>
+  <si>
+    <t>few unique entities~\cite{DBLP:conf/dsai/StajnerNI20},</t>
+  </si>
+  <si>
+    <t>low entity to token ratio~\cite{DBLP:conf/dsai/StajnerNI20},</t>
+  </si>
+  <si>
+    <t>average lexical richness~\cite{DBLP:conf/lrec/StajnerNH20},</t>
+  </si>
+  <si>
+    <t>few content words~\cite{simpa},</t>
+  </si>
+  <si>
+    <t>few modifiers~\cite{DBLP:conf/acl/NarayanG14},</t>
+  </si>
+  <si>
+    <t>few negations~\cite{textevaluator},</t>
+  </si>
+  <si>
+    <t>few noun phrases~\cite{arfe},</t>
+  </si>
+  <si>
+    <t>few past perfect verbs~\cite{textevaluator},</t>
+  </si>
+  <si>
+    <t>few past tense aspect verbs~\cite{textevaluator},</t>
+  </si>
+  <si>
+    <t>few punctuation marks~\cite{10.1145/2738046},</t>
+  </si>
+  <si>
+    <t>few relative-clauses~\cite{arfe},</t>
+  </si>
+  <si>
+    <t>few sentences~\cite{arfe},</t>
+  </si>
+  <si>
+    <t>few third person singular pronouns~\cite{textevaluator},</t>
+  </si>
+  <si>
+    <t>few words from academic word list~\cite{textevaluator},</t>
+  </si>
+  <si>
+    <t>few words per sentence~\cite{simpa},</t>
+  </si>
+  <si>
+    <t>grammatical correctness~\cite{DBLP:journals/tacl/XuCN15},</t>
+  </si>
+  <si>
+    <t>high average distance between consecutive entities~\cite{DBLP:conf/dsai/StajnerNI20},</t>
+  </si>
+  <si>
+    <t>high concreteness~\cite{simpa},</t>
+  </si>
+  <si>
+    <t>high Flesch reading ease~\cite{simpa},</t>
+  </si>
+  <si>
+    <t>high imageability~\cite{simpa},</t>
+  </si>
+  <si>
+    <t>high percentage of vocabulary learned in initial stages of foreign language learning~\cite{tanaka},</t>
+  </si>
+  <si>
+    <t>low age of acquisition~\cite{simpa},</t>
+  </si>
+  <si>
+    <t>low average number of unique entities~\cite{DBLP:conf/dsai/StajnerNI20},</t>
+  </si>
+  <si>
+    <t>low avg distance between all pairs of same entities~\cite{DBLP:conf/dsai/StajnerNI20},</t>
+  </si>
+  <si>
+    <t>low depth of the syntactic tree~\cite{DBLP:conf/lrec/StajnerNH20},</t>
+  </si>
+  <si>
+    <t>low Flesch-Kincaid Grade Level Index~\cite{DBLP:conf/acl/NarayanG14},</t>
+  </si>
+  <si>
+    <t>low number of cases with max distance between 2 appearances of same entity~\cite{DBLP:conf/dsai/StajnerNI20},</t>
+  </si>
+  <si>
+    <t>low unique entities to total number of entities ratio~\cite{DBLP:conf/dsai/StajnerNI20},</t>
+  </si>
+  <si>
+    <t>short sentences~\cite{arfe}.</t>
+  </si>
+  <si>
+    <t>no passive voice~\cite{arfe} and</t>
+  </si>
+  <si>
+    <t>Lit_short</t>
+  </si>
+  <si>
+    <t>no conjunctions</t>
+  </si>
+  <si>
+    <t>high imageability</t>
+  </si>
+  <si>
+    <t>few negations</t>
+  </si>
+  <si>
+    <t>few third person singular pronouns</t>
+  </si>
+  <si>
+    <t>few relative-clauses</t>
+  </si>
+  <si>
+    <t>low age of acquisition</t>
+  </si>
+  <si>
+    <t>few content words</t>
+  </si>
+  <si>
+    <t>few infrequent words</t>
+  </si>
+  <si>
+    <t>few long words</t>
+  </si>
+  <si>
+    <t>few words containing more than eight characters</t>
+  </si>
+  <si>
+    <t>average lexical richness</t>
+  </si>
+  <si>
+    <t>high concreteness</t>
+  </si>
+  <si>
+    <t>few words from academic word list</t>
+  </si>
+  <si>
+    <t>high percentage of vocabulary learned in initial stages of foreign language learning</t>
+  </si>
+  <si>
+    <t>high Flesch reading ease</t>
+  </si>
+  <si>
+    <t>low Flesch-Kincaid Grade Level Index</t>
+  </si>
+  <si>
+    <t>short sentences</t>
+  </si>
+  <si>
+    <t>few unique entities</t>
+  </si>
+  <si>
+    <t>low unique entities to total number of entities ratio</t>
+  </si>
+  <si>
+    <t>average number of words before the main verb</t>
+  </si>
+  <si>
+    <t>few sentences</t>
+  </si>
+  <si>
+    <t>few modifiers</t>
+  </si>
+  <si>
+    <t>few punctuation marks</t>
+  </si>
+  <si>
+    <t>few noun phrases</t>
+  </si>
+  <si>
+    <t>few past perfect verbs</t>
+  </si>
+  <si>
+    <t>few past tense aspect verbs</t>
+  </si>
+  <si>
+    <t>no passive voice</t>
+  </si>
+  <si>
+    <t>grammatical correctness</t>
+  </si>
+  <si>
+    <t>few words per sentence</t>
+  </si>
+  <si>
+    <t>high average distance between consecutive entities</t>
+  </si>
+  <si>
+    <t>no appositions</t>
+  </si>
+  <si>
+    <t>no conditional clauses</t>
+  </si>
+  <si>
+    <t>low average number of unique entities</t>
+  </si>
+  <si>
+    <t>low depth of the syntactic tree</t>
+  </si>
+  <si>
+    <t>low entity to token ratio</t>
+  </si>
+  <si>
+    <t>low avg distance between all pairs of same entities</t>
+  </si>
+  <si>
+    <t>low number of cases with max distance between 2 appearances of same entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1091,17 +1822,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1411,18 +2167,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DCE332-C261-6947-BE11-E959C673661A}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="E1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1433,83 +2192,98 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>273</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>273</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="F3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>273</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="F4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+        <v>273</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="F5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1517,16 +2291,19 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
+      <c r="D6" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1534,118 +2311,139 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="D7" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -1653,16 +2451,19 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
+      <c r="D14" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="F14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1670,390 +2471,459 @@
       <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
+      <c r="D15" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="F15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
+        <v>147</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
+        <v>147</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
+        <v>147</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
+        <v>147</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
+        <v>101</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
+        <v>101</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E30" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E31" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E33" t="s">
+        <v>268</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E35" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C36" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D36" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E36" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B37" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C37" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D37" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E37" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -2061,16 +2931,19 @@
       <c r="C38" t="s">
         <v>107</v>
       </c>
-      <c r="D38" t="s">
-        <v>108</v>
+      <c r="D38" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="F38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -2078,701 +2951,827 @@
       <c r="C39" t="s">
         <v>107</v>
       </c>
-      <c r="D39" t="s">
-        <v>108</v>
+      <c r="D39" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="F39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E42" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="s">
-        <v>121</v>
+        <v>107</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="F45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
+        <v>107</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>207</v>
+      </c>
+      <c r="F46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>260</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
+        <v>107</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>207</v>
+      </c>
+      <c r="F47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>184</v>
       </c>
       <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E48" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="C48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" t="s">
-        <v>138</v>
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" t="s">
-        <v>138</v>
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" t="s">
-        <v>148</v>
+        <v>27</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="F54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" t="s">
-        <v>154</v>
+        <v>27</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="F55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" t="s">
-        <v>154</v>
+        <v>27</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="F56" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" t="s">
-        <v>154</v>
+        <v>27</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="F57" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" t="s">
-        <v>154</v>
+        <v>39</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="F58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" t="s">
-        <v>163</v>
+        <v>39</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="F59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" t="s">
-        <v>163</v>
+        <v>296</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="F60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" t="s">
-        <v>168</v>
+        <v>296</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="F61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" t="s">
-        <v>168</v>
+        <v>326</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="F62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" t="s">
-        <v>174</v>
+        <v>326</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="F63" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" t="s">
-        <v>174</v>
+        <v>63</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="F64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" t="s">
-        <v>174</v>
+        <v>63</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="F65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" t="s">
-        <v>174</v>
+        <v>63</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="E66" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
       </c>
-      <c r="C67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" t="s">
-        <v>148</v>
+      <c r="D67" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" t="s">
-        <v>185</v>
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" t="s">
-        <v>185</v>
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="E70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" t="s">
-        <v>133</v>
+        <v>7</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" t="s">
-        <v>133</v>
+        <v>46</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E76" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F76" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" t="s">
-        <v>202</v>
+        <v>46</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" t="s">
-        <v>202</v>
+        <v>27</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" t="s">
-        <v>207</v>
+        <v>27</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="E79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="F79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" t="s">
-        <v>207</v>
+        <v>57</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="E80" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
         <v>38</v>
@@ -2780,16 +3779,19 @@
       <c r="C81" t="s">
         <v>57</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E81" t="s">
         <v>58</v>
       </c>
-      <c r="E81" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B82" t="s">
         <v>38</v>
@@ -2797,152 +3799,179 @@
       <c r="C82" t="s">
         <v>57</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E82" t="s">
         <v>58</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>211</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" t="s">
-        <v>214</v>
+        <v>57</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" t="s">
-        <v>121</v>
+        <v>296</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="F86" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" t="s">
-        <v>125</v>
+        <v>296</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="E87" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="F87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" t="s">
-        <v>125</v>
+        <v>39</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
-      </c>
-      <c r="D89" t="s">
-        <v>129</v>
+        <v>39</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="E89" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" t="s">
-        <v>129</v>
+        <v>39</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="E90" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s">
         <v>38</v>
@@ -2950,16 +3979,19 @@
       <c r="C91" t="s">
         <v>39</v>
       </c>
-      <c r="D91" t="s">
-        <v>231</v>
+      <c r="D91" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B92" t="s">
         <v>38</v>
@@ -2967,16 +3999,19 @@
       <c r="C92" t="s">
         <v>39</v>
       </c>
-      <c r="D92" t="s">
-        <v>231</v>
+      <c r="D92" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
         <v>38</v>
@@ -2984,745 +4019,2363 @@
       <c r="C93" t="s">
         <v>39</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E93" t="s">
         <v>40</v>
       </c>
-      <c r="E93" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="E94" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="E95" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="E96" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="E97" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="E98" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="E99" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="E100" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="E101" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="E102" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" t="s">
-        <v>202</v>
+        <v>27</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="E103" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" t="s">
-        <v>202</v>
+        <v>27</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E104" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" t="s">
-        <v>207</v>
+        <v>27</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E105" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" t="s">
-        <v>207</v>
+        <v>27</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E106" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" t="s">
-        <v>207</v>
+        <v>27</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E107" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F107" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" t="s">
-        <v>207</v>
+        <v>27</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E108" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
-      </c>
-      <c r="D109" t="s">
-        <v>263</v>
+        <v>27</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
-      </c>
-      <c r="D110" t="s">
-        <v>263</v>
+        <v>27</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="E110" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="F110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
-      </c>
-      <c r="D111" t="s">
-        <v>268</v>
+        <v>27</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="E111" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="F111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
-      </c>
-      <c r="D112" t="s">
-        <v>268</v>
+        <v>7</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="E112" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" t="s">
-        <v>274</v>
+        <v>7</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
-      </c>
-      <c r="D114" t="s">
-        <v>274</v>
+        <v>27</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="F114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>273</v>
-      </c>
-      <c r="D115" t="s">
-        <v>274</v>
+        <v>27</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="F115" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>273</v>
-      </c>
-      <c r="D116" t="s">
-        <v>274</v>
+        <v>27</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="F116" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
-      </c>
-      <c r="D117" t="s">
-        <v>283</v>
+        <v>27</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E117" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="F117" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" t="s">
-        <v>283</v>
+        <v>27</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E118" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="F118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
-      </c>
-      <c r="D119" t="s">
-        <v>263</v>
+        <v>27</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E119" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="F119" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>63</v>
       </c>
       <c r="C120" t="s">
-        <v>262</v>
-      </c>
-      <c r="D120" t="s">
-        <v>263</v>
+        <v>120</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="E120" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="B121" t="s">
         <v>63</v>
       </c>
       <c r="C121" t="s">
-        <v>262</v>
-      </c>
-      <c r="D121" t="s">
-        <v>268</v>
+        <v>120</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="E121" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F121" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
         <v>63</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
-      </c>
-      <c r="D122" t="s">
-        <v>268</v>
+        <v>120</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="E122" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F122" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
-        <v>296</v>
-      </c>
-      <c r="D123" t="s">
-        <v>297</v>
+        <v>124</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="E123" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C124" t="s">
-        <v>296</v>
-      </c>
-      <c r="D124" t="s">
-        <v>297</v>
+        <v>124</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="E124" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F124" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
-        <v>296</v>
-      </c>
-      <c r="D125" t="s">
-        <v>302</v>
+        <v>124</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="E125" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F125" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
         <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
-      </c>
-      <c r="D126" t="s">
-        <v>302</v>
+        <v>132</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="E126" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" t="s">
-        <v>214</v>
+        <v>132</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="E127" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" t="s">
-        <v>214</v>
+        <v>132</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="E128" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F128" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" t="s">
-        <v>311</v>
+        <v>132</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="E129" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F129" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" t="s">
-        <v>311</v>
+        <v>128</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="E130" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" t="s">
-        <v>316</v>
+        <v>128</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="E131" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F131" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" t="s">
-        <v>316</v>
+        <v>128</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="E132" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F132" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" t="s">
-        <v>321</v>
+        <v>173</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="E133" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="F133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>323</v>
+        <v>176</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" t="s">
-        <v>321</v>
+        <v>173</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="E134" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="F134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>325</v>
+        <v>178</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>326</v>
-      </c>
-      <c r="D135" t="s">
-        <v>327</v>
+        <v>173</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="E135" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="F135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>326</v>
-      </c>
-      <c r="D136" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E136" t="s">
+        <v>174</v>
+      </c>
+      <c r="F136" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F136">
+    <sortCondition ref="D2:D136"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048982E2-4406-024B-9759-6D2703A5D7C6}">
+  <dimension ref="A1:W37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" t="s">
+        <v>360</v>
+      </c>
+      <c r="W3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" t="s">
+        <v>364</v>
+      </c>
+      <c r="U4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" t="s">
+        <v>370</v>
+      </c>
+      <c r="U5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" t="s">
+        <v>375</v>
+      </c>
+      <c r="K6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L6" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" t="s">
+        <v>378</v>
+      </c>
+      <c r="N6" t="s">
+        <v>379</v>
+      </c>
+      <c r="O6" t="s">
+        <v>380</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>327</v>
       </c>
-      <c r="E136" t="s">
-        <v>330</v>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H7" t="s">
+        <v>383</v>
+      </c>
+      <c r="W7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J8" t="s">
+        <v>388</v>
+      </c>
+      <c r="U8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I9" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9" t="s">
+        <v>393</v>
+      </c>
+      <c r="U9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" t="s">
+        <v>395</v>
+      </c>
+      <c r="I10" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" t="s">
+        <v>397</v>
+      </c>
+      <c r="U10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" t="s">
+        <v>401</v>
+      </c>
+      <c r="U11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" t="s">
+        <v>404</v>
+      </c>
+      <c r="H12" t="s">
+        <v>405</v>
+      </c>
+      <c r="W12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13" t="s">
+        <v>407</v>
+      </c>
+      <c r="I13" t="s">
+        <v>408</v>
+      </c>
+      <c r="J13" t="s">
+        <v>409</v>
+      </c>
+      <c r="U13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I14" t="s">
+        <v>412</v>
+      </c>
+      <c r="J14" t="s">
+        <v>413</v>
+      </c>
+      <c r="U14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" t="s">
+        <v>415</v>
+      </c>
+      <c r="F15" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" t="s">
+        <v>416</v>
+      </c>
+      <c r="H15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I15" t="s">
+        <v>418</v>
+      </c>
+      <c r="J15" t="s">
+        <v>419</v>
+      </c>
+      <c r="K15" t="s">
+        <v>420</v>
+      </c>
+      <c r="L15" t="s">
+        <v>421</v>
+      </c>
+      <c r="S15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" t="s">
+        <v>422</v>
+      </c>
+      <c r="H16" t="s">
+        <v>423</v>
+      </c>
+      <c r="W16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" t="s">
+        <v>424</v>
+      </c>
+      <c r="F17" t="s">
+        <v>341</v>
+      </c>
+      <c r="G17" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I17" t="s">
+        <v>427</v>
+      </c>
+      <c r="J17" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" t="s">
+        <v>429</v>
+      </c>
+      <c r="L17" t="s">
+        <v>430</v>
+      </c>
+      <c r="S17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" t="s">
+        <v>432</v>
+      </c>
+      <c r="H18" t="s">
+        <v>433</v>
+      </c>
+      <c r="W18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H19" t="s">
+        <v>435</v>
+      </c>
+      <c r="I19" t="s">
+        <v>436</v>
+      </c>
+      <c r="J19" t="s">
+        <v>437</v>
+      </c>
+      <c r="K19" t="s">
+        <v>438</v>
+      </c>
+      <c r="L19" t="s">
+        <v>439</v>
+      </c>
+      <c r="S19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" t="s">
+        <v>440</v>
+      </c>
+      <c r="H20" t="s">
+        <v>441</v>
+      </c>
+      <c r="I20" t="s">
+        <v>442</v>
+      </c>
+      <c r="J20" t="s">
+        <v>443</v>
+      </c>
+      <c r="U20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" t="s">
+        <v>355</v>
+      </c>
+      <c r="F21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21" t="s">
+        <v>444</v>
+      </c>
+      <c r="H21" t="s">
+        <v>445</v>
+      </c>
+      <c r="I21" t="s">
+        <v>446</v>
+      </c>
+      <c r="J21" t="s">
+        <v>447</v>
+      </c>
+      <c r="U21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G22" t="s">
+        <v>448</v>
+      </c>
+      <c r="H22" t="s">
+        <v>449</v>
+      </c>
+      <c r="W22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23" t="s">
+        <v>450</v>
+      </c>
+      <c r="H23" t="s">
+        <v>451</v>
+      </c>
+      <c r="I23" t="s">
+        <v>452</v>
+      </c>
+      <c r="J23" t="s">
+        <v>453</v>
+      </c>
+      <c r="K23" t="s">
+        <v>454</v>
+      </c>
+      <c r="L23" t="s">
+        <v>455</v>
+      </c>
+      <c r="S23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" t="s">
+        <v>456</v>
+      </c>
+      <c r="H24" t="s">
+        <v>457</v>
+      </c>
+      <c r="W24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" t="s">
+        <v>341</v>
+      </c>
+      <c r="G25" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" t="s">
+        <v>459</v>
+      </c>
+      <c r="W25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" t="s">
+        <v>460</v>
+      </c>
+      <c r="H26" t="s">
+        <v>461</v>
+      </c>
+      <c r="W26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E27" t="s">
+        <v>462</v>
+      </c>
+      <c r="F27" t="s">
+        <v>341</v>
+      </c>
+      <c r="G27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H27" t="s">
+        <v>464</v>
+      </c>
+      <c r="W27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28" t="s">
+        <v>341</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>341</v>
+      </c>
+      <c r="G28" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" t="s">
+        <v>466</v>
+      </c>
+      <c r="I28" t="s">
+        <v>467</v>
+      </c>
+      <c r="J28" t="s">
+        <v>468</v>
+      </c>
+      <c r="U28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E29" t="s">
+        <v>358</v>
+      </c>
+      <c r="F29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" t="s">
+        <v>469</v>
+      </c>
+      <c r="H29" t="s">
+        <v>470</v>
+      </c>
+      <c r="W29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" t="s">
+        <v>471</v>
+      </c>
+      <c r="H30" t="s">
+        <v>472</v>
+      </c>
+      <c r="I30" t="s">
+        <v>473</v>
+      </c>
+      <c r="J30" t="s">
+        <v>474</v>
+      </c>
+      <c r="U30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" t="s">
+        <v>475</v>
+      </c>
+      <c r="H31" t="s">
+        <v>476</v>
+      </c>
+      <c r="I31" t="s">
+        <v>477</v>
+      </c>
+      <c r="J31" t="s">
+        <v>478</v>
+      </c>
+      <c r="K31" t="s">
+        <v>479</v>
+      </c>
+      <c r="L31" t="s">
+        <v>480</v>
+      </c>
+      <c r="S31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" t="s">
+        <v>341</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" t="s">
+        <v>341</v>
+      </c>
+      <c r="G32" t="s">
+        <v>481</v>
+      </c>
+      <c r="H32" t="s">
+        <v>482</v>
+      </c>
+      <c r="I32" t="s">
+        <v>483</v>
+      </c>
+      <c r="J32" t="s">
+        <v>484</v>
+      </c>
+      <c r="U32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" t="s">
+        <v>485</v>
+      </c>
+      <c r="F33" t="s">
+        <v>341</v>
+      </c>
+      <c r="G33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H33" t="s">
+        <v>487</v>
+      </c>
+      <c r="I33" t="s">
+        <v>488</v>
+      </c>
+      <c r="V33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" t="s">
+        <v>341</v>
+      </c>
+      <c r="E34" t="s">
+        <v>489</v>
+      </c>
+      <c r="F34" t="s">
+        <v>341</v>
+      </c>
+      <c r="G34" t="s">
+        <v>490</v>
+      </c>
+      <c r="H34" t="s">
+        <v>491</v>
+      </c>
+      <c r="I34" t="s">
+        <v>492</v>
+      </c>
+      <c r="V34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" t="s">
+        <v>365</v>
+      </c>
+      <c r="D35" t="s">
+        <v>341</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" t="s">
+        <v>493</v>
+      </c>
+      <c r="H35" t="s">
+        <v>494</v>
+      </c>
+      <c r="I35" t="s">
+        <v>495</v>
+      </c>
+      <c r="V35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" t="s">
+        <v>496</v>
+      </c>
+      <c r="H36" t="s">
+        <v>497</v>
+      </c>
+      <c r="I36" t="s">
+        <v>498</v>
+      </c>
+      <c r="J36" t="s">
+        <v>499</v>
+      </c>
+      <c r="U36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" t="s">
+        <v>500</v>
+      </c>
+      <c r="H37" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:P5 G6:O6 G7:P1048576">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(G1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="theta">
+      <formula>NOT(ISERROR(SEARCH("theta",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D864180C-83FE-3944-82C4-477EF3DB8B6A}">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A38">
+    <sortCondition ref="A8:A38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>